--- a/SchedulingData/dynamic16/pso/scheduling2_12.xlsx
+++ b/SchedulingData/dynamic16/pso/scheduling2_12.xlsx
@@ -466,136 +466,136 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>274.84</v>
+        <v>213.56</v>
       </c>
       <c r="D2" t="n">
-        <v>338.04</v>
+        <v>275.32</v>
       </c>
       <c r="E2" t="n">
-        <v>11.816</v>
+        <v>12.168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>212.12</v>
+        <v>205.98</v>
       </c>
       <c r="D3" t="n">
-        <v>273.12</v>
+        <v>278.66</v>
       </c>
       <c r="E3" t="n">
-        <v>11.848</v>
+        <v>10.804</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>202.56</v>
+        <v>226.98</v>
       </c>
       <c r="D4" t="n">
-        <v>273.58</v>
+        <v>287.18</v>
       </c>
       <c r="E4" t="n">
-        <v>14.152</v>
+        <v>11.972</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>264.42</v>
+        <v>278.66</v>
       </c>
       <c r="D5" t="n">
-        <v>331.08</v>
+        <v>335.76</v>
       </c>
       <c r="E5" t="n">
-        <v>12.492</v>
+        <v>7.204</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>231.36</v>
+        <v>260.02</v>
       </c>
       <c r="D6" t="n">
-        <v>286.66</v>
+        <v>336.68</v>
       </c>
       <c r="E6" t="n">
-        <v>12.124</v>
+        <v>11.452</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>338.04</v>
+        <v>287.18</v>
       </c>
       <c r="D7" t="n">
-        <v>385.74</v>
+        <v>353.22</v>
       </c>
       <c r="E7" t="n">
-        <v>8.176</v>
+        <v>6.988</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>225.04</v>
+        <v>335.76</v>
       </c>
       <c r="D8" t="n">
-        <v>296.9</v>
+        <v>412.46</v>
       </c>
       <c r="E8" t="n">
-        <v>12.5</v>
+        <v>3.604</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -603,32 +603,32 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>385.74</v>
+        <v>353.22</v>
       </c>
       <c r="D9" t="n">
-        <v>440.26</v>
+        <v>447.34</v>
       </c>
       <c r="E9" t="n">
-        <v>3.864</v>
+        <v>2.676</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>296.9</v>
+        <v>233.48</v>
       </c>
       <c r="D10" t="n">
-        <v>357.44</v>
+        <v>277.18</v>
       </c>
       <c r="E10" t="n">
-        <v>8.076000000000001</v>
+        <v>13.432</v>
       </c>
     </row>
     <row r="11">
@@ -637,74 +637,74 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>357.44</v>
+        <v>336.68</v>
       </c>
       <c r="D11" t="n">
-        <v>400.04</v>
+        <v>415.94</v>
       </c>
       <c r="E11" t="n">
-        <v>5.436</v>
+        <v>6.636</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>273.12</v>
+        <v>415.94</v>
       </c>
       <c r="D12" t="n">
-        <v>332.92</v>
+        <v>487.04</v>
       </c>
       <c r="E12" t="n">
-        <v>8.468</v>
+        <v>2.156</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>440.26</v>
+        <v>412.46</v>
       </c>
       <c r="D13" t="n">
-        <v>514.4299999999999</v>
+        <v>501.96</v>
       </c>
       <c r="E13" t="n">
-        <v>30</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>514.4299999999999</v>
+        <v>501.96</v>
       </c>
       <c r="D14" t="n">
-        <v>600.65</v>
+        <v>568.51</v>
       </c>
       <c r="E14" t="n">
-        <v>25.528</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
@@ -713,226 +713,226 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>286.66</v>
+        <v>568.51</v>
       </c>
       <c r="D15" t="n">
-        <v>361.22</v>
+        <v>617.9299999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>7.308</v>
+        <v>27.228</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>273.58</v>
+        <v>487.04</v>
       </c>
       <c r="D16" t="n">
-        <v>329.88</v>
+        <v>519.54</v>
       </c>
       <c r="E16" t="n">
-        <v>10.632</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>361.22</v>
+        <v>519.54</v>
       </c>
       <c r="D17" t="n">
-        <v>429.78</v>
+        <v>610.97</v>
       </c>
       <c r="E17" t="n">
-        <v>3.052</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>331.08</v>
+        <v>266.1</v>
       </c>
       <c r="D18" t="n">
-        <v>368.58</v>
+        <v>351.52</v>
       </c>
       <c r="E18" t="n">
-        <v>10.372</v>
+        <v>12.408</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>429.78</v>
+        <v>610.97</v>
       </c>
       <c r="D19" t="n">
-        <v>500.58</v>
+        <v>653.0700000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>30</v>
+        <v>27.48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>500.58</v>
+        <v>447.34</v>
       </c>
       <c r="D20" t="n">
-        <v>566.84</v>
+        <v>478.82</v>
       </c>
       <c r="E20" t="n">
-        <v>26.544</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>400.04</v>
+        <v>478.82</v>
       </c>
       <c r="D21" t="n">
-        <v>449.06</v>
+        <v>555.38</v>
       </c>
       <c r="E21" t="n">
-        <v>2.664</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>449.06</v>
+        <v>275.32</v>
       </c>
       <c r="D22" t="n">
-        <v>525.4299999999999</v>
+        <v>320.22</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>8.808</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>525.4299999999999</v>
+        <v>351.52</v>
       </c>
       <c r="D23" t="n">
-        <v>573.4299999999999</v>
+        <v>414.16</v>
       </c>
       <c r="E23" t="n">
-        <v>26.4</v>
+        <v>9.724</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>600.65</v>
+        <v>653.0700000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>674.95</v>
+        <v>708.83</v>
       </c>
       <c r="E24" t="n">
-        <v>22.228</v>
+        <v>24.024</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>566.84</v>
+        <v>277.18</v>
       </c>
       <c r="D25" t="n">
-        <v>618.1799999999999</v>
+        <v>342.48</v>
       </c>
       <c r="E25" t="n">
-        <v>23.52</v>
+        <v>9.012</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>329.88</v>
+        <v>320.22</v>
       </c>
       <c r="D26" t="n">
-        <v>394.14</v>
+        <v>362.82</v>
       </c>
       <c r="E26" t="n">
-        <v>6.316</v>
+        <v>6.168</v>
       </c>
     </row>
     <row r="27">
@@ -941,41 +941,41 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>332.92</v>
+        <v>414.16</v>
       </c>
       <c r="D27" t="n">
-        <v>389.04</v>
+        <v>493.42</v>
       </c>
       <c r="E27" t="n">
-        <v>3.996</v>
+        <v>5.408</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>389.04</v>
+        <v>362.82</v>
       </c>
       <c r="D28" t="n">
-        <v>437.56</v>
+        <v>435.02</v>
       </c>
       <c r="E28" t="n">
-        <v>0.784</v>
+        <v>2.528</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -983,10 +983,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>437.56</v>
+        <v>435.02</v>
       </c>
       <c r="D29" t="n">
-        <v>512.99</v>
+        <v>506.86</v>
       </c>
       <c r="E29" t="n">
         <v>30</v>
@@ -994,40 +994,40 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>573.4299999999999</v>
+        <v>506.86</v>
       </c>
       <c r="D30" t="n">
-        <v>609.9299999999999</v>
+        <v>577.9</v>
       </c>
       <c r="E30" t="n">
-        <v>23.88</v>
+        <v>27.036</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>368.58</v>
+        <v>708.83</v>
       </c>
       <c r="D31" t="n">
-        <v>432.76</v>
+        <v>750.91</v>
       </c>
       <c r="E31" t="n">
-        <v>6.564</v>
+        <v>20.956</v>
       </c>
     </row>
     <row r="32">
@@ -1036,150 +1036,150 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>394.14</v>
+        <v>342.48</v>
       </c>
       <c r="D32" t="n">
-        <v>441.96</v>
+        <v>408.48</v>
       </c>
       <c r="E32" t="n">
-        <v>2.664</v>
+        <v>4.532</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>618.1799999999999</v>
+        <v>493.42</v>
       </c>
       <c r="D33" t="n">
-        <v>669.96</v>
+        <v>542.8</v>
       </c>
       <c r="E33" t="n">
-        <v>20.452</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>669.96</v>
+        <v>542.8</v>
       </c>
       <c r="D34" t="n">
-        <v>724.5599999999999</v>
+        <v>621.4</v>
       </c>
       <c r="E34" t="n">
-        <v>17.592</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>512.99</v>
+        <v>408.48</v>
       </c>
       <c r="D35" t="n">
-        <v>575.09</v>
+        <v>466.58</v>
       </c>
       <c r="E35" t="n">
-        <v>26.46</v>
+        <v>1.812</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>432.76</v>
+        <v>466.58</v>
       </c>
       <c r="D36" t="n">
-        <v>493.72</v>
+        <v>534.86</v>
       </c>
       <c r="E36" t="n">
-        <v>3.108</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>493.72</v>
+        <v>577.9</v>
       </c>
       <c r="D37" t="n">
-        <v>569.3</v>
+        <v>628.2</v>
       </c>
       <c r="E37" t="n">
-        <v>30</v>
+        <v>23.136</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>569.3</v>
+        <v>534.86</v>
       </c>
       <c r="D38" t="n">
-        <v>637.0599999999999</v>
+        <v>598.46</v>
       </c>
       <c r="E38" t="n">
-        <v>26.864</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>609.9299999999999</v>
+        <v>555.38</v>
       </c>
       <c r="D39" t="n">
-        <v>658.79</v>
+        <v>622.1799999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>21.124</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="40">
@@ -1188,74 +1188,74 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>575.09</v>
+        <v>621.4</v>
       </c>
       <c r="D40" t="n">
-        <v>631.59</v>
+        <v>685.64</v>
       </c>
       <c r="E40" t="n">
-        <v>22.44</v>
+        <v>26.256</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>658.79</v>
+        <v>628.2</v>
       </c>
       <c r="D41" t="n">
-        <v>695.17</v>
+        <v>673.2</v>
       </c>
       <c r="E41" t="n">
-        <v>18.616</v>
+        <v>20.276</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>695.17</v>
+        <v>673.2</v>
       </c>
       <c r="D42" t="n">
-        <v>768.27</v>
+        <v>715.86</v>
       </c>
       <c r="E42" t="n">
-        <v>13.936</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>724.5599999999999</v>
+        <v>685.64</v>
       </c>
       <c r="D43" t="n">
-        <v>818.36</v>
+        <v>757.14</v>
       </c>
       <c r="E43" t="n">
-        <v>12.792</v>
+        <v>22.716</v>
       </c>
     </row>
     <row r="44">
@@ -1264,17 +1264,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>441.96</v>
+        <v>598.46</v>
       </c>
       <c r="D44" t="n">
-        <v>533.23</v>
+        <v>641.0599999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>22.68</v>
       </c>
     </row>
     <row r="45">
@@ -1283,55 +1283,55 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>533.23</v>
+        <v>641.0599999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>583.91</v>
+        <v>692.96</v>
       </c>
       <c r="E45" t="n">
-        <v>26.612</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>674.95</v>
+        <v>622.1799999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>741.71</v>
+        <v>670.9400000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>18.172</v>
+        <v>23.224</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>741.71</v>
+        <v>617.9299999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>791.8099999999999</v>
+        <v>685.03</v>
       </c>
       <c r="E47" t="n">
-        <v>14.792</v>
+        <v>23.628</v>
       </c>
     </row>
   </sheetData>
